--- a/public/planilhas/questions.xlsx
+++ b/public/planilhas/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malvim.BSA_NET\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ADD759-1539-455F-8CE1-14E09AA49AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6104FA6-F8F0-405C-B08F-427C697074CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,62 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="229">
   <si>
     <t xml:space="preserve">Entusiástico(a) </t>
   </si>
   <si>
-    <t>Demonstra grande empolgação ou interesse, ansioso(a)</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t xml:space="preserve">Ousado(a) </t>
   </si>
   <si>
-    <t>Quer correr riscos, corajoso(a), aventureiro(a)</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">Diplomático(a) </t>
   </si>
   <si>
-    <t>Tem tato com as pessoas</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>Satisfeito(a)</t>
   </si>
   <si>
-    <t>Tem tudo que se deseja ou se almeja, realizado(a)</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t xml:space="preserve">Cauteloso(a) </t>
   </si>
   <si>
-    <t>Cuidadoso(a) em evitar perigo ou riscos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Determinado(a) </t>
   </si>
   <si>
-    <t>Decidido(a), firme, resoluto(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Convincente(a) </t>
   </si>
   <si>
-    <t>Faz com que os demais se sintam seguros ou que concordem com seu ponto de vista; confiável</t>
-  </si>
-  <si>
     <t>Boa Pessoa</t>
   </si>
   <si>
@@ -99,21 +78,12 @@
     <t xml:space="preserve">Exato(a) </t>
   </si>
   <si>
-    <t>Preciso(a); correto(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Franco(a) </t>
   </si>
   <si>
-    <t>Fala livremente, abertamente ou francamente; firme</t>
-  </si>
-  <si>
     <t>Calmo(a)</t>
   </si>
   <si>
-    <t>Sem empolgação ou agitação; composto(a) e relaxado(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Falador(a) </t>
   </si>
   <si>
@@ -129,9 +99,6 @@
     <t xml:space="preserve">Convencional </t>
   </si>
   <si>
-    <t>Conforma-se com as práticas ou padrões estabelecidos</t>
-  </si>
-  <si>
     <t>Decisivo(a)</t>
   </si>
   <si>
@@ -147,9 +114,6 @@
     <t xml:space="preserve">Metódico(a) </t>
   </si>
   <si>
-    <t>Age de forma sistemática, comedido(a), circunspecto(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aberto(a) </t>
   </si>
   <si>
@@ -159,9 +123,6 @@
     <t>Moderado(a)</t>
   </si>
   <si>
-    <t>Evita excessos ou extremos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gentil </t>
   </si>
   <si>
@@ -192,9 +153,6 @@
     <t xml:space="preserve">Consciencioso(a) </t>
   </si>
   <si>
-    <t>Cuidadoso(a), meticuloso(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dominante </t>
   </si>
   <si>
@@ -228,9 +186,6 @@
     <t>Impaciente</t>
   </si>
   <si>
-    <t>Incapaz de aceitar ou tolerar atrasos; inquieto(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tem tato </t>
   </si>
   <si>
@@ -240,9 +195,6 @@
     <t xml:space="preserve">Agradável </t>
   </si>
   <si>
-    <t>Pronto(a) para consentir ou ir pela cabeça dos outros; simpático(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Magnético(a) </t>
   </si>
   <si>
@@ -252,9 +204,6 @@
     <t>Insistente</t>
   </si>
   <si>
-    <t>Firme ao fazer exigências ou manter uma posição</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valente(a) </t>
   </si>
   <si>
@@ -276,21 +225,12 @@
     <t>Tímido(a)</t>
   </si>
   <si>
-    <t>Precavido(a), hesitante, sem auto-confiança</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reservado(a) </t>
   </si>
   <si>
-    <t>Demonstra comedimento ao expressar-se; quieto(a)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prestativo(a) </t>
   </si>
   <si>
-    <t>Pronto(a) para prestar favores aos demais; amoldável</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vontade forte </t>
   </si>
   <si>
@@ -324,9 +264,6 @@
     <t>Independente</t>
   </si>
   <si>
-    <t>Segue as suas próprias regras; não conta com ninguém</t>
-  </si>
-  <si>
     <t xml:space="preserve">Competitivo(a) </t>
   </si>
   <si>
@@ -348,15 +285,9 @@
     <t>Recolhido(a)</t>
   </si>
   <si>
-    <t>Dá um valor enorme à sua vida pessoal; poucos o(a) conhecem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detalhista </t>
   </si>
   <si>
-    <t>Exigente; se preocupa demais com detalhes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Obediente </t>
   </si>
   <si>
@@ -390,9 +321,6 @@
     <t xml:space="preserve">Teimoso(a) </t>
   </si>
   <si>
-    <t>Resoluto(a) e determinado(a); inflexível</t>
-  </si>
-  <si>
     <t>Ordeiro(a)</t>
   </si>
   <si>
@@ -426,9 +354,6 @@
     <t xml:space="preserve">Sociável </t>
   </si>
   <si>
-    <t>Gosta da companhia dos outros; boa companhia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paciente </t>
   </si>
   <si>
@@ -498,9 +423,6 @@
     <t xml:space="preserve">Confiante </t>
   </si>
   <si>
-    <t>Auto-confiante; acha que certamente terá sucesso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solidário(a) </t>
   </si>
   <si>
@@ -516,9 +438,6 @@
     <t>Categórico(a)</t>
   </si>
   <si>
-    <t>Ousado(a) ou confiante; insistente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Disciplinado(a) </t>
   </si>
   <si>
@@ -588,9 +507,6 @@
     <t>Clemente(a)</t>
   </si>
   <si>
-    <t>Tende a não ser duro(a) ou rígido(a); misericordioso(a), generoso(a) ou indulgente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cativante </t>
   </si>
   <si>
@@ -612,9 +528,6 @@
     <t>Complacente</t>
   </si>
   <si>
-    <t>Disposto(a) seguir as ordens dos demais</t>
-  </si>
-  <si>
     <t xml:space="preserve">“do contra” </t>
   </si>
   <si>
@@ -672,9 +585,6 @@
     <t xml:space="preserve">Humilde </t>
   </si>
   <si>
-    <t>Comporta-se de forma modesta, espírito manso</t>
-  </si>
-  <si>
     <t>“alto astral”</t>
   </si>
   <si>
@@ -702,16 +612,106 @@
     <t xml:space="preserve">Otimista </t>
   </si>
   <si>
-    <t>Tende a esperar um resultado positivo</t>
-  </si>
-  <si>
     <t>Colaborador(a)</t>
   </si>
   <si>
     <t>Disposto(a) a ajudar ou dar apoio</t>
   </si>
   <si>
-    <t>Isento(a) de paixão</t>
+    <t>Que manifesta entusiasmo, admiração excessiva, ardor, alegria, exaltação</t>
+  </si>
+  <si>
+    <t>Arrojado; que tem ousadia ou inovação</t>
+  </si>
+  <si>
+    <t>Que é hábil; cortês, fino</t>
+  </si>
+  <si>
+    <t>Que se encontra contente; característica do que ou de quem se satisfez</t>
+  </si>
+  <si>
+    <t>Que se comporta com cautela, prudência, moderação; precavido</t>
+  </si>
+  <si>
+    <t>Que demonstra decisão ou resolução; decidido</t>
+  </si>
+  <si>
+    <t>Que é capaz de convencer ou tem poder para isso</t>
+  </si>
+  <si>
+    <t>Sem erros; com precisão; correto</t>
+  </si>
+  <si>
+    <t>Que é leal, sincero; não dissimulado; verdadeiro</t>
+  </si>
+  <si>
+    <t>Que não se exalta, tranquilo</t>
+  </si>
+  <si>
+    <t>Que segue ou resulta de um conjunto de costumes, hábitos e usos</t>
+  </si>
+  <si>
+    <t>Age de forma sistemática, comedido(a), meticuloso(a)</t>
+  </si>
+  <si>
+    <t>Evita excessos ou extremos; comedido, prudente</t>
+  </si>
+  <si>
+    <t>Reservado; que é contido, prudente</t>
+  </si>
+  <si>
+    <t>Meticuloso; que expressa cuidado, minúcia, esmero</t>
+  </si>
+  <si>
+    <t>Que não sabe ou não gosta de esperar; apressado, aflito</t>
+  </si>
+  <si>
+    <t>Cortês; que é afável, simpático</t>
+  </si>
+  <si>
+    <t>Firme ao fazer exigências ou manter uma posição; teimoso, perseverante</t>
+  </si>
+  <si>
+    <t>Precavido(a), hesitante, acanhado</t>
+  </si>
+  <si>
+    <t>Que é discreto; que não gosta de ser o centro das atenções</t>
+  </si>
+  <si>
+    <t>Pronto(a) para prestar favores aos demais; solícito</t>
+  </si>
+  <si>
+    <t>Segue as suas próprias regras; não depende de ninguém</t>
+  </si>
+  <si>
+    <t>Pouco expansivo, retraído</t>
+  </si>
+  <si>
+    <t>Que tende a se preocupar muito com os detalhes</t>
+  </si>
+  <si>
+    <t>Que não desiste com facilidade; obstinado</t>
+  </si>
+  <si>
+    <t>De convívio agradável; civilizado, afável</t>
+  </si>
+  <si>
+    <t>Que confia; disposto à confiança; que tem confiança em si</t>
+  </si>
+  <si>
+    <t>Indiscutível; que não aceita dúvidas; que não se consegue discutir</t>
+  </si>
+  <si>
+    <t>Tende a não ser duro(a) ou rígido(a); misericordioso(a), generoso(a) ou bondoso</t>
+  </si>
+  <si>
+    <t>Que satisfaz as vontades de alguém com o intuito de lhe ser agradável</t>
+  </si>
+  <si>
+    <t>Comporta-se de forma modesta, respeitoso</t>
+  </si>
+  <si>
+    <t>Busca enxergar tudo pelo lado bom; não desiste diante de grandes problemas ou adversidades</t>
   </si>
 </sst>
 </file>
@@ -722,12 +722,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -745,6 +739,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -770,13 +770,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1111,14 +1111,14 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,16 +1126,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,16 +1177,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,33 +1194,33 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,16 +1228,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,16 +1245,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,16 +1262,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,16 +1279,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,16 +1296,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,16 +1313,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,16 +1330,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,16 +1347,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,16 +1364,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1381,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,16 +1432,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,16 +1449,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,16 +1483,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,16 +1500,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,16 +1517,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1534,16 +1534,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,16 +1551,16 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,16 +1585,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,16 +1602,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,16 +1619,16 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,16 +1653,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1670,16 +1670,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1687,16 +1687,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,16 +1738,16 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1755,16 +1755,16 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,16 +1772,16 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1789,16 +1789,16 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,16 +1823,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,16 +1840,16 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1857,16 +1857,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,16 +1874,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,16 +1891,16 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1908,16 +1908,16 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,16 +1925,16 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,16 +1942,16 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1959,16 +1959,16 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1976,16 +1976,16 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,16 +1993,16 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,16 +2010,16 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>87</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,16 +2027,16 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,16 +2044,16 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,16 +2061,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2078,16 +2078,16 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,16 +2095,16 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,16 +2112,16 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,16 +2129,16 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,16 +2146,16 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,16 +2163,16 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>11</v>
+        <v>104</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,16 +2180,16 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,16 +2197,16 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,16 +2214,16 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,16 +2231,16 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,16 +2248,16 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,16 +2265,16 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>11</v>
+        <v>115</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,16 +2282,16 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>20</v>
+        <v>117</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,16 +2299,16 @@
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>8</v>
+        <v>119</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,16 +2316,16 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2333,16 +2333,16 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,16 +2350,16 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2367,16 +2367,16 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>11</v>
+        <v>127</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2384,16 +2384,16 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
+        <v>129</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,16 +2401,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,16 +2418,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>11</v>
+        <v>132</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,16 +2435,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>8</v>
+        <v>134</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2452,16 +2452,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,16 +2469,16 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
+        <v>137</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,16 +2486,16 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>139</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,16 +2503,16 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>2</v>
+        <v>141</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,16 +2520,16 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2537,16 +2537,16 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,16 +2554,16 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>8</v>
+        <v>147</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,16 +2571,16 @@
         <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>5</v>
+        <v>149</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2588,16 +2588,16 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,16 +2605,16 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,16 +2622,16 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
+        <v>155</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,16 +2639,16 @@
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+        <v>157</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,16 +2656,16 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>11</v>
+        <v>159</v>
+      </c>
+      <c r="C92" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2673,16 +2673,16 @@
         <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,16 +2690,16 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2707,16 +2707,16 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2724,16 +2724,16 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>8</v>
+        <v>166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,16 +2741,16 @@
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>5</v>
+        <v>167</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2758,16 +2758,16 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>8</v>
+        <v>169</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,16 +2775,16 @@
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>11</v>
+        <v>171</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2792,16 +2792,16 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>2</v>
+        <v>173</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2809,16 +2809,16 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>2</v>
+        <v>175</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2826,16 +2826,16 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+        <v>177</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2843,16 +2843,16 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,16 +2860,16 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>11</v>
+        <v>181</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2877,16 +2877,16 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>5</v>
+        <v>183</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,16 +2894,16 @@
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>11</v>
+        <v>185</v>
+      </c>
+      <c r="C106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,16 +2911,16 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>2</v>
+        <v>186</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2928,16 +2928,16 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>8</v>
+        <v>188</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,16 +2945,16 @@
         <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>8</v>
+        <v>190</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,16 +2962,16 @@
         <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>5</v>
+        <v>192</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,16 +2979,16 @@
         <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>2</v>
+        <v>194</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2996,16 +2996,16 @@
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>11</v>
+        <v>195</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
